--- a/BISolutionWorksheets.xlsx
+++ b/BISolutionWorksheets.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="198">
   <si>
     <t>Object Name</t>
   </si>
@@ -310,15 +310,6 @@
     <t>Tim Thomas</t>
   </si>
   <si>
-    <t>varchar(6)</t>
-  </si>
-  <si>
-    <t>char(4)</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -355,27 +346,9 @@
     <t>Dimension Column</t>
   </si>
   <si>
-    <t>varchar(11)</t>
-  </si>
-  <si>
-    <t>varchar(40)</t>
-  </si>
-  <si>
-    <t>char(2)</t>
-  </si>
-  <si>
-    <t>varchar(80)</t>
-  </si>
-  <si>
-    <t>char(12)</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
-    <t>tinyint</t>
-  </si>
-  <si>
     <t>nvarchar(50)</t>
   </si>
   <si>
@@ -385,18 +358,6 @@
     <t>na</t>
   </si>
   <si>
-    <t>decimal(18,4)</t>
-  </si>
-  <si>
-    <t>nchar(4)</t>
-  </si>
-  <si>
-    <t>nchar(6)</t>
-  </si>
-  <si>
-    <t>nchar(11)</t>
-  </si>
-  <si>
     <t>Data Warehouse Objects Worksheet</t>
   </si>
   <si>
@@ -448,18 +409,9 @@
     <t>SSAS Objects Worksheet</t>
   </si>
   <si>
-    <t>nchar(2)</t>
-  </si>
-  <si>
     <t>Destination</t>
   </si>
   <si>
-    <t>smallint</t>
-  </si>
-  <si>
-    <t>nvarchar(100)</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -475,9 +427,6 @@
     <t>CoffeeMerchant.dbo.Sales</t>
   </si>
   <si>
-    <t>DWCoffeeMerchant.dbo.</t>
-  </si>
-  <si>
     <t>DWCoffeeMerchant.dbo.DimConsumer</t>
   </si>
   <si>
@@ -493,54 +442,9 @@
     <t>CoffeeMerchant.dbo.employee</t>
   </si>
   <si>
-    <t>DWCoffeeMerchant.dbo.OrderDateKey</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.FactSales.TitleKey</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.StoreKey</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.FactSales.SalesQuantity</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimPublishers.PublisherKey</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimPublishers.PublisherId</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimPublishers.PublisherName</t>
-  </si>
-  <si>
     <t>DWCoffeeMerchant.dbo.DimEmployee</t>
   </si>
   <si>
-    <t>DWCoffeeMerchant.dbo.FactTitlesAuthorsKey</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.FactTitlesAuthors.TitleKey</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.FactTitlesAuthors.AuthorOrder</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimAuthors</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimAuthors.AuthorKey</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimAuthors.AuthorId</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimAuthors.AuthorName</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimAuthors.AuthorState</t>
-  </si>
-  <si>
     <t>DWCoffeeMerchant.dbo.DimDates</t>
   </si>
   <si>
@@ -571,72 +475,6 @@
     <t>DWCoffeeMerchant.dbo.DimDates.YearName</t>
   </si>
   <si>
-    <t>CoffeeMerchant.dbo.Sales.dbo.ord_num</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.Sales.dbo.ord_date</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.Sales.Title_id</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.Sales.Stor_id</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.Sales.Qty</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.titles.title_id</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.titles.title</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.titles.type</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.titles.pub_id</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.titles.price</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.publishers.pub_id</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.publishers.pub_name</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.titleauthor.title_id</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.titleauthor.au_id</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.titleauthor.au_ord</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.authors</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.authors.au_id</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.authors.au_fname</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.authors.au_lname</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.authors.state</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimConsumer.ConsumerKey</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchant.dbo.DimConsumer.ConsumerId</t>
-  </si>
-  <si>
     <t>DWCoffeeMerchant.dbo.DimConsumer.ConsumerState</t>
   </si>
   <si>
@@ -647,6 +485,141 @@
   </si>
   <si>
     <t>DWCoffeeMerchant.dbo.DimConsumer.ConsumerCreditLimit</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.Date-SK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.Consumer-SK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.Inventory-SK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.Employee-SK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.FactSales.OrderPrice</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.FactSales.Quantity</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.FactSales.Discount</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimConsumer.ConsumerKey-SK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimConsumer.ConsumerId-AK</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.OrderLine</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.consumer.consumer_id</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.consumer.state</t>
+  </si>
+  <si>
+    <t>nvarchar(40)</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.consumer.city</t>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.consumer.zipcode</t>
+  </si>
+  <si>
+    <t>nvarchar(8)</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.consumer.creditlimit</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimInventory.InventoryKey-SK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimInventory.InventoryId</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.inventory.inventory_id</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimInventory.Name</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.inventory.name</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimInventory.Price</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.inventory.price</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimInventory.ItemType</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.inventory.item_type</t>
+  </si>
+  <si>
+    <t>nvarchar(30)</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimInventory.Country</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.country.country_name</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimEmployee.EmployeeKey-SK</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimEmployee.EmployeeId-AK</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.employee.employee_id</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimEmployee.LastName</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.employee.last_name</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimEmployee.ComissionRate</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.employee.comission_rate</t>
+  </si>
+  <si>
+    <t>deciaml(4,2)</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimEmployee.HireDate</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.employee.hire_date</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimEmployee.BirthDate</t>
+  </si>
+  <si>
+    <t>DWCoffeeMerchant.dbo.DimEmployee.Gender</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.employee.birthdate</t>
+  </si>
+  <si>
+    <t>CoffeeMerchant.dbo.employee.gender</t>
+  </si>
+  <si>
+    <t>nvarchar(6)</t>
   </si>
 </sst>
 </file>
@@ -1308,16 +1281,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1325,13 +1298,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" s="11">
         <v>8</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1339,13 +1312,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="12">
         <v>8</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1353,13 +1326,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" s="13">
         <v>8</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1383,10 +1356,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1477,37 +1450,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1518,7 +1491,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -1541,7 +1514,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="18" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -1563,7 +1536,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="24" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
@@ -1583,7 +1556,7 @@
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="28" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="27"/>
@@ -1603,7 +1576,7 @@
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="28" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
@@ -1623,7 +1596,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="33" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -1643,10 +1616,10 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="19" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
@@ -1668,7 +1641,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="21" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L10" s="20"/>
     </row>
@@ -2265,10 +2238,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E43"/>
+  <dimension ref="A3:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2282,7 +2255,7 @@
   <sheetData>
     <row r="3" spans="1:5" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2304,13 +2277,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="37" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>8</v>
@@ -2321,13 +2294,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="38" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>7</v>
@@ -2338,33 +2311,33 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="39" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B7" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>10</v>
@@ -2372,16 +2345,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>10</v>
@@ -2389,16 +2362,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>10</v>
@@ -2406,562 +2379,613 @@
     </row>
     <row r="11" spans="1:5" ht="14.45" customHeight="1">
       <c r="A11" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A12" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.45" customHeight="1">
       <c r="A13" s="39" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E13" s="39" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>121</v>
+      <c r="A14" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="39" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="B15" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="39" t="s">
-        <v>187</v>
-      </c>
       <c r="D15" s="39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="39" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="39" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="39" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>7</v>
+      <c r="A19" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="39" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="E20" s="39" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="D21" s="39" t="s">
+      <c r="A21" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="39" t="s">
-        <v>120</v>
+      <c r="C21" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="39" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B22" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>192</v>
-      </c>
       <c r="D22" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>7</v>
+      <c r="A23" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="39" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="39" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="39" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="38" t="s">
+      <c r="A27" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E28" s="38" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="39" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B29" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>109</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="39" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>118</v>
+      <c r="A31" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="41" t="s">
+      <c r="A32" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A36" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="41" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A33" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="39" t="s">
-        <v>175</v>
-      </c>
       <c r="B37" s="41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E37" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="39" t="s">
-        <v>176</v>
+      <c r="A38" s="41" t="s">
+        <v>141</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>109</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="39" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>109</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="39" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>109</v>
       </c>
       <c r="E40" s="41" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="39" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="39" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B46" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C46" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D46" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E46" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2990,7 +3014,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="18">
       <c r="A2" s="44" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="40"/>
@@ -3002,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>2</v>
@@ -3011,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3113,7 +3137,7 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
